--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STIS\Semester 7\Skripsi\My\Word\Buku Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA7444-EFFE-4AD3-BB8F-EECDB4EFCDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D18DB7-E41D-43ED-A247-EB8958F2CD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{18629700-708A-40DB-990D-702C9005608B}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9870" windowHeight="8170" activeTab="2" xr2:uid="{18629700-708A-40DB-990D-702C9005608B}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA869308-7C53-4A46-AED0-2CCCBD6BD5A5}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="86" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3862,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0465AD81-3700-498F-B2C7-BF83C4A145C4}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5340,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78B1716-1485-4533-AB9C-5A39FCDF4004}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6262,7 +6262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2551DB-3D90-401E-9E02-C00E7634A323}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STIS\Semester 7\Skripsi\My\Word\Buku Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D18DB7-E41D-43ED-A247-EB8958F2CD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399DAFA2-7E0B-45F1-A6A3-BD020A2EC460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9870" windowHeight="8170" activeTab="2" xr2:uid="{18629700-708A-40DB-990D-702C9005608B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{18629700-708A-40DB-990D-702C9005608B}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA869308-7C53-4A46-AED0-2CCCBD6BD5A5}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5340,7 +5340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78B1716-1485-4533-AB9C-5A39FCDF4004}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
